--- a/DC4C0700.xlsx
+++ b/DC4C0700.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfnsh\PycharmProjects\AGTDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E36DA5-37D1-4710-B80E-9870BE90C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A1902-7E3C-41BD-95C0-5973A68F9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="182">
   <si>
     <t>Team 2</t>
   </si>
@@ -1261,6 +1261,9 @@
   <si>
     <t>Didn't get any story ticket due to development delay. My TPM told me to focus on writing test cases.</t>
   </si>
+  <si>
+    <t>John Kobir</t>
+  </si>
 </sst>
 </file>
 
@@ -30907,10 +30910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B2AD3-A296-4F0A-B47B-CF7DAD0181F2}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30965,10 +30968,36 @@
         <v>60</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20">
+        <v>45729</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:faria.afrin@allgentech.io" xr:uid="{3C575670-6A37-4EDB-AC4F-5A6A589E9FD1}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:faria.afrin@allgentech.io" xr:uid="{84025D57-813A-4A84-B0E1-40B2C614C455}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>